--- a/nodes_source_analyses/energy/energy_power_combined_cycle_hydrogen.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_combined_cycle_hydrogen.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B642A2-B335-B04B-980C-0B83F8B704F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D449DF31-DCEB-EE4D-B0ED-EE9859A50964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31840" windowHeight="26720" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
   <si>
     <t>Source</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>Maria Tsagkaraki, Roos de Kok</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1497,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1794,6 +1797,7 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3112,8 +3116,8 @@
   </sheetPr>
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3615,15 +3619,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="44">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>57</v>
+      <c r="I30" s="173" t="s">
+        <v>202</v>
       </c>
       <c r="J30" s="97"/>
     </row>
@@ -5544,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S187" sqref="S187"/>
     </sheetView>
   </sheetViews>
